--- a/tests/Gauges/delete_options.xlsx
+++ b/tests/Gauges/delete_options.xlsx
@@ -26,6 +26,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
     <x:t>Suite 103</x:t>
   </x:si>
   <x:si>
@@ -42,7 +45,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </x:numFmts>
-  <x:fonts count="53" x14ac:knownFonts="1">
+  <x:fonts count="55" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="8"/>
       <x:name val="Arial"/>
@@ -397,6 +400,20 @@
       <x:family val="2"/>
     </x:font>
     <x:font>
+      <x:sz val="8"/>
+      <x:name val="Arial"/>
+      <x:color rgb="FF000000"/>
+      <x:charset val="204"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:sz val="7"/>
+      <x:name val="Segoe UI"/>
+      <x:color rgb="FF000000"/>
+      <x:charset val="204"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -404,7 +421,7 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="14">
+  <x:fills count="15">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -461,6 +478,9 @@
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
   </x:fills>
   <x:borders count="36">
     <x:border>
@@ -994,7 +1014,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="16">
+  <x:cellStyleXfs count="17">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -1026,7 +1046,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="4" fontId="8" fillId="0" borderId="22" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="4" fontId="12" fillId="0" borderId="22" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -1038,11 +1058,14 @@
     <x:xf numFmtId="4" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="285">
+  <x:cellXfs count="288">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1698,6 +1721,10 @@
     <x:xf numFmtId="0" fontId="50" fillId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <x:xf numFmtId="0" fontId="51" fillId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <x:xf numFmtId="0" fontId="50" fillId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <x:xf numFmtId="0" fontId="50" fillId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <x:xf numFmtId="0" fontId="52" fillId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <x:xf numFmtId="0" fontId="53" fillId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <x:xf numFmtId="0" fontId="49" fillId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <x:xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -1722,10 +1749,6 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="4" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -1742,8 +1765,8 @@
       <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -2233,8 +2256,8 @@
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <x:pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
-      <x:selection activeCell="J9" sqref="J9 G16"/>
-      <x:selection pane="bottomLeft" activeCell="J9" sqref="J9 G16"/>
+      <x:selection activeCell="K9" sqref="K9 H16"/>
+      <x:selection pane="bottomLeft" activeCell="K9" sqref="K9 H16"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="10.2" x14ac:dyDescent="0.2"/>
@@ -2250,30 +2273,36 @@
     <x:col min="9" max="11" width="9.210625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:11" ht="11" customHeight="1">
+    <x:row r="1" spans="1:11">
       <x:c r="A1" s="0">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="B1" s="271"/>
+      <x:c r="B1" s="275" t="s">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="2" spans="1:11" ht="36" customHeight="1">
-      <x:c r="B2" s="272"/>
-      <x:c r="C2" s="272"/>
-      <x:c r="D2" s="272"/>
-      <x:c r="E2" s="272"/>
-      <x:c r="F2" s="272"/>
-      <x:c r="G2" s="272"/>
+      <x:c r="B2" s="276"/>
+      <x:c r="C2" s="276"/>
+      <x:c r="D2" s="276"/>
+      <x:c r="E2" s="276"/>
+      <x:c r="F2" s="276"/>
+      <x:c r="G2" s="276"/>
     </x:row>
     <x:row r="3" spans="1:11">
-      <x:c r="A3" s="273"/>
-      <x:c r="B3" s="274"/>
+      <x:c r="A3" s="277"/>
+      <x:c r="B3" s="278"/>
     </x:row>
     <x:row r="4" spans="1:11" ht="15" customHeight="1">
       <x:c r="B4" s="183">
         <x:v>1005</x:v>
       </x:c>
-      <x:c r="C4" s="186" t="s"/>
-      <x:c r="D4" s="186" t="s"/>
+      <x:c r="C4" s="186" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D4" s="186" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="E4" s="188">
         <x:v>4807</x:v>
       </x:c>
@@ -2289,10 +2318,10 @@
         <x:v>1059</x:v>
       </x:c>
       <x:c r="C5" s="186" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D5" s="186" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E5" s="188">
         <x:v>2150</x:v>
@@ -2308,8 +2337,12 @@
       <x:c r="B6" s="183">
         <x:v>1072</x:v>
       </x:c>
-      <x:c r="C6" s="186" t="s"/>
-      <x:c r="D6" s="186" t="s"/>
+      <x:c r="C6" s="186" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D6" s="186" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="E6" s="188">
         <x:v>3596</x:v>
       </x:c>
@@ -2324,8 +2357,12 @@
       <x:c r="B7" s="183">
         <x:v>1080</x:v>
       </x:c>
-      <x:c r="C7" s="186" t="s"/>
-      <x:c r="D7" s="186" t="s"/>
+      <x:c r="C7" s="186" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D7" s="186" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="E7" s="188">
         <x:v>9634</x:v>
       </x:c>
@@ -2340,8 +2377,12 @@
       <x:c r="B8" s="183">
         <x:v>1105</x:v>
       </x:c>
-      <x:c r="C8" s="186" t="s"/>
-      <x:c r="D8" s="186" t="s"/>
+      <x:c r="C8" s="186" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D8" s="186" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="E8" s="188">
         <x:v>31219.95</x:v>
       </x:c>
@@ -2356,8 +2397,12 @@
       <x:c r="B9" s="183">
         <x:v>1180</x:v>
       </x:c>
-      <x:c r="C9" s="186" t="s"/>
-      <x:c r="D9" s="186" t="s"/>
+      <x:c r="C9" s="186" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D9" s="186" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="E9" s="188">
         <x:v>3640</x:v>
       </x:c>
@@ -2372,8 +2417,12 @@
       <x:c r="B10" s="183">
         <x:v>1266</x:v>
       </x:c>
-      <x:c r="C10" s="186" t="s"/>
-      <x:c r="D10" s="186" t="s"/>
+      <x:c r="C10" s="186" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D10" s="186" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="E10" s="188">
         <x:v>6935</x:v>
       </x:c>
@@ -2388,8 +2437,12 @@
       <x:c r="B11" s="183">
         <x:v>1280</x:v>
       </x:c>
-      <x:c r="C11" s="186" t="s"/>
-      <x:c r="D11" s="186" t="s"/>
+      <x:c r="C11" s="186" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D11" s="186" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="E11" s="188">
         <x:v>4317.75</x:v>
       </x:c>
@@ -2404,8 +2457,12 @@
       <x:c r="B12" s="183">
         <x:v>1305</x:v>
       </x:c>
-      <x:c r="C12" s="186" t="s"/>
-      <x:c r="D12" s="186" t="s"/>
+      <x:c r="C12" s="186" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D12" s="186" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="E12" s="188">
         <x:v>3065</x:v>
       </x:c>
@@ -2417,37 +2474,37 @@
       </x:c>
     </x:row>
     <x:row r="13" spans="1:11" ht="15" customHeight="1">
-      <x:c r="B13" s="275"/>
-      <x:c r="C13" s="276"/>
-      <x:c r="D13" s="276"/>
-      <x:c r="E13" s="276"/>
-      <x:c r="F13" s="276" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G13" s="277">
+      <x:c r="B13" s="279"/>
+      <x:c r="C13" s="280"/>
+      <x:c r="D13" s="280"/>
+      <x:c r="E13" s="280"/>
+      <x:c r="F13" s="280" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G13" s="196">
         <x:f>Subtotal(9,G4:G12)</x:f>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:11">
-      <x:c r="B14" s="278"/>
-      <x:c r="C14" s="278"/>
-      <x:c r="D14" s="278"/>
-      <x:c r="E14" s="278"/>
-      <x:c r="F14" s="278"/>
-      <x:c r="G14" s="279"/>
-      <x:c r="H14" s="280"/>
+      <x:c r="B14" s="281"/>
+      <x:c r="C14" s="281"/>
+      <x:c r="D14" s="281"/>
+      <x:c r="E14" s="281"/>
+      <x:c r="F14" s="281"/>
+      <x:c r="G14" s="282"/>
+      <x:c r="H14" s="283"/>
     </x:row>
     <x:row r="15" spans="1:11">
-      <x:c r="B15" s="281"/>
-      <x:c r="C15" s="281"/>
-      <x:c r="G15" s="282"/>
+      <x:c r="B15" s="284"/>
+      <x:c r="C15" s="285"/>
+      <x:c r="G15" s="44"/>
       <x:c r="H15" s="45"/>
     </x:row>
     <x:row r="16" spans="1:11">
-      <x:c r="B16" s="283"/>
-      <x:c r="C16" s="283"/>
-      <x:c r="D16" s="284"/>
-      <x:c r="E16" s="273"/>
+      <x:c r="B16" s="286"/>
+      <x:c r="C16" s="286"/>
+      <x:c r="D16" s="287"/>
+      <x:c r="E16" s="277"/>
     </x:row>
   </x:sheetData>
   <x:phoneticPr fontId="0" type="noConversion"/>
